--- a/doc/工作计划.xlsx
+++ b/doc/工作计划.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="497" activeTab="2"/>
@@ -13,20 +13,20 @@
     <sheet name="透视" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">详细计划!$A$1:$L$29</definedName>
-    <definedName name="_Toc459833920" localSheetId="2">详细计划!$C$7</definedName>
-    <definedName name="_Toc459833921" localSheetId="2">详细计划!$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">详细计划!$A$1:$L$25</definedName>
+    <definedName name="_Toc459833920" localSheetId="2">详细计划!$C$3</definedName>
+    <definedName name="_Toc459833921" localSheetId="2">详细计划!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
   <si>
     <t>文件说明</t>
   </si>
@@ -227,18 +227,6 @@
   </si>
   <si>
     <t>前端\后台实际工时（小时）</t>
-  </si>
-  <si>
-    <t>部门创建</t>
-  </si>
-  <si>
-    <t>部门修改</t>
-  </si>
-  <si>
-    <t>部门删除</t>
-  </si>
-  <si>
-    <t>部门列表</t>
   </si>
   <si>
     <t>职位管理</t>
@@ -442,11 +430,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -454,7 +442,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -462,14 +450,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -477,7 +465,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -492,13 +480,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -640,6 +628,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,26 +658,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="着色 1" xfId="2" builtinId="29"/>
+    <cellStyle name="强调文字颜色 1" xfId="2" builtinId="29"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1455,7 +1443,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:A2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="2">
     <pivotField showAll="0">
@@ -1489,7 +1477,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B12:D18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -1562,7 +1550,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1604,7 +1592,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1639,7 +1627,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1854,103 +1842,103 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="1"/>
-    <col min="7" max="7" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="20" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -1961,7 +1949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1969,7 +1957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1977,7 +1965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1988,7 +1976,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1996,7 +1984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
@@ -2004,7 +1992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
@@ -2012,7 +2000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
@@ -2020,7 +2008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
@@ -2028,7 +2016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
@@ -2036,7 +2024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
@@ -2044,7 +2032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
@@ -2055,7 +2043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="B22" s="5" t="s">
         <v>57</v>
       </c>
@@ -2063,18 +2051,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="20" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -2097,7 +2085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2120,7 +2108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -2140,7 +2128,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
@@ -2160,7 +2148,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -2171,32 +2159,32 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2232,54 +2220,54 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="41.625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickTop="1">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="12" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="C3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="C5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2290,26 +2278,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="28.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="9" customWidth="1"/>
-    <col min="9" max="10" width="17.625" customWidth="1"/>
-    <col min="11" max="11" width="45.875" customWidth="1"/>
-    <col min="12" max="12" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="28.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="9" customWidth="1"/>
+    <col min="9" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="45.85546875" customWidth="1"/>
+    <col min="12" max="12" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="8" t="s">
         <v>60</v>
       </c>
@@ -2335,622 +2323,407 @@
         <v>61</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="B2" s="9">
-        <v>3.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="24">
-        <v>2</v>
-      </c>
-      <c r="G2" s="24">
-        <v>3</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" s="25">
-        <v>42612</v>
-      </c>
-      <c r="J2" s="25">
-        <v>42614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F2" s="31">
+        <v>8</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="B3" s="9">
-        <v>3.2</v>
-      </c>
-      <c r="C3" s="9" t="s">
+        <v>4.2</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="25">
-        <v>42612</v>
-      </c>
-      <c r="J3" s="25">
-        <v>42614</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="B4" s="9">
-        <v>3.3</v>
-      </c>
-      <c r="C4" s="9" t="s">
+        <v>4.3</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="I4" s="25">
-        <v>42612</v>
-      </c>
-      <c r="J4" s="25">
-        <v>42614</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="B5" s="9">
-        <v>3.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" s="25">
-        <v>42612</v>
-      </c>
-      <c r="J5" s="25">
-        <v>42615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="B6" s="9">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="24">
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="9">
+        <v>4.7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" s="24" customFormat="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
+        <v>8</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:12" s="24" customFormat="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22">
         <v>6</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="I6" s="25">
-        <v>42613</v>
-      </c>
-      <c r="J6" s="25">
-        <v>42615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B7" s="9">
-        <v>4.2</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" s="25">
-        <v>42613</v>
-      </c>
-      <c r="J7" s="25">
-        <v>42615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B8" s="9">
-        <v>4.3</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="25">
-        <v>42616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="9">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="25">
-        <v>42616</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="25">
-        <v>42616</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G10" s="22"/>
+      <c r="H10" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="K10" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="B11" s="9">
-        <v>4.5999999999999996</v>
+        <v>6.2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" s="25">
-        <v>42617</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="B12" s="9">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" s="25">
-        <v>42617</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="27">
-        <v>8</v>
-      </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="I13" s="31">
-        <v>42626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="B14" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" s="24" customFormat="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22">
+        <v>4</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="K16" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="27">
-        <v>6</v>
-      </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" s="31">
-        <v>42627</v>
-      </c>
-      <c r="K14" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="9">
-        <v>6.2</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I15" s="25">
-        <v>42617</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="9">
-        <v>6.3</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I16" s="25">
-        <v>42617</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B17" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="C17" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="F17" s="9">
         <v>0.5</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I17" s="25">
-        <v>42617</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" s="9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="F18" s="9">
         <v>1</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I18" s="25">
-        <v>42617</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="9" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F19" s="9">
         <v>1.5</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" s="25">
-        <v>42617</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="27">
-        <v>4</v>
-      </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="I20" s="31">
-        <v>42618</v>
-      </c>
-      <c r="K20" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="K20" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F21" s="9">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" s="25">
-        <v>42619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="F22" s="9">
         <v>1</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I22" s="25">
-        <v>42619</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="2:12">
       <c r="B23" s="9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F23" s="9">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I23" s="25">
-        <v>42620</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="2:12">
       <c r="B24" s="9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="F24" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I24" s="25">
-        <v>42621</v>
-      </c>
-      <c r="K24" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="2:12">
       <c r="B25" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="F25" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I25" s="25">
-        <v>42622</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B26" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="9">
-        <v>1</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I26" s="25">
-        <v>42623</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B27" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="9">
-        <v>5</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I27" s="25">
-        <v>42624</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B28" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="9">
-        <v>1</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I28" s="25">
-        <v>42624</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B29" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="9">
-        <v>4</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I29" s="25">
-        <v>42625</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="I25" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L29"/>
-  <mergeCells count="4">
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="G6:G12"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
+  <autoFilter ref="A1:L25"/>
+  <mergeCells count="2">
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="G2:G8"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2965,49 +2738,49 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.625" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="37.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.625" customWidth="1"/>
-    <col min="5" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="13">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="B12" s="14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:6">
       <c r="B13" s="17" t="s">
         <v>48</v>
       </c>
@@ -3024,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="B14" s="17" t="s">
         <v>41</v>
       </c>
@@ -3043,7 +2816,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="B15" s="17" t="s">
         <v>36</v>
       </c>
@@ -3060,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="B16" s="17" t="s">
         <v>54</v>
       </c>
@@ -3077,9 +2850,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6">
       <c r="B17" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -3089,9 +2862,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6">
       <c r="B18" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C18" s="18">
         <v>188</v>

--- a/doc/工作计划.xlsx
+++ b/doc/工作计划.xlsx
@@ -585,7 +585,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -609,9 +609,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -656,6 +653,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1855,88 +1858,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="3" t="s">
@@ -2052,15 +2055,15 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -2160,31 +2163,31 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2228,13 +2231,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2281,7 +2284,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2336,145 +2339,145 @@
       <c r="B2" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="30">
         <v>8</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="21" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="9">
         <v>4.2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="21" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="9">
         <v>4.3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="23" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="23" t="s">
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="9">
         <v>4.5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="23" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="23" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="9">
         <v>4.7</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="23" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:12" s="24" customFormat="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22" t="s">
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" s="23" customFormat="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
         <v>8</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="26"/>
-    </row>
-    <row r="10" spans="1:12" s="24" customFormat="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22" t="s">
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:12" s="23" customFormat="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21">
         <v>6</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22" t="s">
+      <c r="G10" s="21"/>
+      <c r="H10" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="K10" s="24" t="s">
+      <c r="I10" s="25"/>
+      <c r="K10" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="24" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2482,99 +2485,99 @@
       <c r="B11" s="9">
         <v>6.2</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="31" t="s">
         <v>83</v>
       </c>
       <c r="F11" s="9">
         <v>0.5</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="9">
         <v>6.3</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="31" t="s">
         <v>84</v>
       </c>
       <c r="F12" s="9">
         <v>1</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="31" t="s">
         <v>86</v>
       </c>
       <c r="F13" s="9">
         <v>0.5</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="31" t="s">
         <v>88</v>
       </c>
       <c r="F14" s="9">
         <v>1</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="31" t="s">
         <v>91</v>
       </c>
       <c r="F15" s="9">
         <v>1.5</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:12" s="24" customFormat="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22" t="s">
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" s="23" customFormat="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21">
         <v>4</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="K16" s="24" t="s">
+      <c r="I16" s="25"/>
+      <c r="K16" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="24" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2582,61 +2585,61 @@
       <c r="B17" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="31" t="s">
         <v>104</v>
       </c>
       <c r="F17" s="9">
         <v>0.5</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="31" t="s">
         <v>105</v>
       </c>
       <c r="F18" s="9">
         <v>1</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="31" t="s">
         <v>106</v>
       </c>
       <c r="F19" s="9">
         <v>1.5</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="I19" s="20"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="31" t="s">
         <v>107</v>
       </c>
       <c r="F20" s="9">
         <v>3</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="19"/>
       <c r="K20" t="s">
         <v>94</v>
       </c>
@@ -2648,76 +2651,76 @@
       <c r="B21" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="31" t="s">
         <v>109</v>
       </c>
       <c r="F21" s="9">
         <v>3</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="20"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="31" t="s">
         <v>111</v>
       </c>
       <c r="F22" s="9">
         <v>1</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="31" t="s">
         <v>113</v>
       </c>
       <c r="F23" s="9">
         <v>5</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="31" t="s">
         <v>115</v>
       </c>
       <c r="F24" s="9">
         <v>1</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="I24" s="20"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="31" t="s">
         <v>117</v>
       </c>
       <c r="F25" s="9">
         <v>4</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L25"/>
@@ -2759,124 +2762,124 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>16</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="15">
+      <c r="D13" s="17"/>
+      <c r="E13" s="14">
         <f>C13/8</f>
         <v>2</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <f>D13/8</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>52</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>1</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <f>C14/8</f>
         <v>6.5</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <f t="shared" ref="F14:F18" si="0">D14/8</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>68</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="15">
+      <c r="D15" s="17"/>
+      <c r="E15" s="14">
         <f t="shared" ref="E15:E18" si="1">C15/8</f>
         <v>8.5</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>52</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="15">
+      <c r="D16" s="17"/>
+      <c r="E16" s="14">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>188</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>1</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="14">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
